--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_39.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3778276.470747011</v>
+        <v>3885659.665174315</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12443012.75936921</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243165.4780498525</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7389691.551542881</v>
+        <v>7360704.840857383</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>55.39130811963921</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>253.2373238967255</v>
       </c>
     </row>
     <row r="3">
@@ -814,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>93.89254046638139</v>
       </c>
       <c r="F4" t="n">
-        <v>123.5068447795006</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -883,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -899,16 +901,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>269.2916131848582</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>307.8805009470656</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,16 +1056,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>50.99347519099554</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>182.3146108978331</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>223.2590147878338</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>260.9450981559189</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>91.4598785420778</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>142.0294255915594</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>53.82913822149973</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>44.75138076689361</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1853,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2011,16 +2013,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,13 +2061,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>183.8417748468611</v>
+        <v>177.4726336168578</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2090,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2245,16 +2247,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>79.1153231220618</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756243</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2476,19 +2478,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>83.06560892428168</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>156.3923706291105</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2567,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695538</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2615,10 +2617,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2713,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1.04391179877741</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>50.0620915095756</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652579</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808195</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317892</v>
+        <v>184.6527153981522</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808194</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>67.9693421596363</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>63.16281301712667</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>56.9811888265258</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096056</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545303</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>45.16086499484926</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3803,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652651</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>105.1820732698676</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4138,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>63.84155641259233</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>78.34975387299269</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1195.924014069019</v>
+        <v>1249.246750862032</v>
       </c>
       <c r="C2" t="n">
-        <v>826.9614971286078</v>
+        <v>880.2842339216199</v>
       </c>
       <c r="D2" t="n">
-        <v>826.9614971286078</v>
+        <v>522.0185353148695</v>
       </c>
       <c r="E2" t="n">
-        <v>826.9614971286078</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="F2" t="n">
-        <v>771.0106808461439</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4361,19 +4363,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>2308.758267664335</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W2" t="n">
-        <v>1955.989612394221</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X2" t="n">
-        <v>1582.523854133141</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="Y2" t="n">
-        <v>1582.523854133141</v>
+        <v>1249.246750862032</v>
       </c>
     </row>
     <row r="3">
@@ -4395,13 +4397,13 @@
         <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
@@ -4410,19 +4412,19 @@
         <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>613.9915673260033</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105042</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
         <v>2214.708848710446</v>
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>472.6531669530523</v>
+        <v>461.9138669598622</v>
       </c>
       <c r="C4" t="n">
-        <v>472.6531669530523</v>
+        <v>292.9776840319553</v>
       </c>
       <c r="D4" t="n">
-        <v>472.6531669530523</v>
+        <v>292.9776840319553</v>
       </c>
       <c r="E4" t="n">
-        <v>324.7400733706592</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
         <v>51.24678656800311</v>
@@ -4510,28 +4512,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1244.744376093917</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>990.0598878880302</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W4" t="n">
-        <v>700.6427178510696</v>
+        <v>1092.344461831649</v>
       </c>
       <c r="X4" t="n">
-        <v>472.6531669530523</v>
+        <v>864.354910933632</v>
       </c>
       <c r="Y4" t="n">
-        <v>472.6531669530523</v>
+        <v>643.5623317901019</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1822.970833065919</v>
+        <v>1101.143993102105</v>
       </c>
       <c r="C5" t="n">
-        <v>1454.008316125507</v>
+        <v>732.1814761616938</v>
       </c>
       <c r="D5" t="n">
-        <v>1181.996585635751</v>
+        <v>373.9157775549433</v>
       </c>
       <c r="E5" t="n">
-        <v>1181.996585635751</v>
+        <v>373.9157775549433</v>
       </c>
       <c r="F5" t="n">
-        <v>771.0106808461439</v>
+        <v>366.9702768057398</v>
       </c>
       <c r="G5" t="n">
         <v>355.3059305704328</v>
@@ -4565,16 +4567,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872912</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4604,13 +4606,13 @@
         <v>2562.339328400155</v>
       </c>
       <c r="W5" t="n">
-        <v>2209.570673130041</v>
+        <v>2251.348923403119</v>
       </c>
       <c r="X5" t="n">
-        <v>2209.570673130041</v>
+        <v>1877.883165142039</v>
       </c>
       <c r="Y5" t="n">
-        <v>2209.570673130041</v>
+        <v>1487.743833166227</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>168.0008189145199</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L6" t="n">
-        <v>932.4978103100997</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1295.75982926932</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1683.044957866265</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>2015.115393042426</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>349.2765195627319</v>
+        <v>623.0447030767627</v>
       </c>
       <c r="C7" t="n">
-        <v>349.2765195627319</v>
+        <v>454.1085201488559</v>
       </c>
       <c r="D7" t="n">
-        <v>199.1598801503962</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="E7" t="n">
-        <v>51.2467865680031</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
         <v>51.2467865680031</v>
@@ -4750,25 +4752,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1584.937559275512</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1584.937559275512</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>1295.819221779349</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V7" t="n">
-        <v>1041.134733573462</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="W7" t="n">
-        <v>751.7175635365018</v>
+        <v>1032.68271880502</v>
       </c>
       <c r="X7" t="n">
-        <v>751.7175635365018</v>
+        <v>804.6931679070025</v>
       </c>
       <c r="Y7" t="n">
-        <v>530.9249843929716</v>
+        <v>804.6931679070025</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2201.719078084901</v>
+        <v>1313.273607737845</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V8" t="n">
-        <v>2961.784676410102</v>
+        <v>2090.012779777779</v>
       </c>
       <c r="W8" t="n">
-        <v>2961.784676410102</v>
+        <v>2090.012779777779</v>
       </c>
       <c r="X8" t="n">
-        <v>2588.318918149022</v>
+        <v>2090.012779777779</v>
       </c>
       <c r="Y8" t="n">
-        <v>2588.318918149022</v>
+        <v>1699.873447801967</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>979.6730931919906</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>479.6639240396553</v>
+        <v>586.4082965573066</v>
       </c>
       <c r="C10" t="n">
-        <v>310.7277411117484</v>
+        <v>417.4721136293997</v>
       </c>
       <c r="D10" t="n">
-        <v>310.7277411117484</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="E10" t="n">
-        <v>310.7277411117484</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U10" t="n">
-        <v>1326.59460854119</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V10" t="n">
-        <v>1071.910120335303</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="W10" t="n">
-        <v>928.4460540812028</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="X10" t="n">
-        <v>700.4565031831854</v>
+        <v>988.8493405310765</v>
       </c>
       <c r="Y10" t="n">
-        <v>479.6639240396553</v>
+        <v>768.0567613875463</v>
       </c>
     </row>
     <row r="11">
@@ -5033,31 +5035,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>454.6048385560546</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998286</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E13" t="n">
-        <v>194.8007783998286</v>
+        <v>397.4723325755821</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>397.4723325755821</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>230.276233290462</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5267,19 +5269,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5355,22 +5357,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969299</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327652</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>594.8179559048583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5434,52 +5436,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5507,55 +5509,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5598,10 +5600,10 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N18" t="n">
         <v>1577.52840832642</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1569.732795130727</v>
+        <v>1509.120567373032</v>
       </c>
       <c r="W19" t="n">
-        <v>1280.315625093766</v>
+        <v>1219.703397336071</v>
       </c>
       <c r="X19" t="n">
-        <v>1280.315625093766</v>
+        <v>991.7138464380538</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,10 +5764,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5777,22 +5779,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>2565.513299557012</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>2565.513299557012</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M21" t="n">
-        <v>3162.891787183563</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>3790.48975073817</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>4342.399480977458</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>4457.571492023711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>801.6918836311989</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C22" t="n">
-        <v>632.7557007032921</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D22" t="n">
-        <v>482.6390612909563</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>482.6390612909563</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y22" t="n">
-        <v>983.3403484614387</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6020,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>546.5917956728314</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>398.6787020904383</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>251.7887545925279</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6172,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6230,13 +6232,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6254,22 +6256,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1468.439756756785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O27" t="n">
-        <v>2020.349486996072</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2443.97263649114</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>801.6918836311989</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>632.7557007032921</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7557007032921</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>432.9862109052757</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>286.0962634073653</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6427,7 +6429,7 @@
         <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>983.3403484614387</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6449,16 +6451,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6537,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2222.001901828445</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319322</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656816</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150022</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942654</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1788.515128237795</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.79828551875</v>
+        <v>1499.097958200834</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582389</v>
+        <v>1271.108407302817</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>1050.315828159287</v>
       </c>
     </row>
     <row r="32">
@@ -6686,28 +6688,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6716,10 +6718,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6780,25 +6782,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="L33" t="n">
-        <v>542.9134462654469</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M33" t="n">
-        <v>1140.291933891999</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N33" t="n">
-        <v>1767.889897446606</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319327</v>
+        <v>801.6605733532801</v>
       </c>
       <c r="C34" t="n">
-        <v>782.551295565682</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150027</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942658</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580118</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382519</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973197</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717216</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1432.091168225067</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>983.3090381835199</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>448.1846595309957</v>
       </c>
       <c r="L36" t="n">
-        <v>577.3880777468471</v>
+        <v>943.5102657467545</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531932</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656814</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150019</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E37" t="n">
-        <v>533.581456494265</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580109</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594054</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7148,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355936</v>
@@ -7190,34 +7192,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>244.2098454714573</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O39" t="n">
-        <v>2297.690135143765</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.957531531933</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656824</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D40" t="n">
-        <v>656.964603115003</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
         <v>1948.813509611463</v>
@@ -7403,58 +7405,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.957531531933</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656824</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D43" t="n">
-        <v>656.964603115003</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942661</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580121</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345483</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384027</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2273.672861378251</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1984.597634722449</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1729.913146516562</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1440.495976479601</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1212.506425581584</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="44">
@@ -7637,16 +7639,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7655,28 +7657,28 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>542.9134462654469</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>1140.291933891999</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1767.889897446606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>763.7541388327643</v>
+        <v>3195.647281583948</v>
       </c>
       <c r="C46" t="n">
-        <v>594.8179559048574</v>
+        <v>3026.711098656041</v>
       </c>
       <c r="D46" t="n">
-        <v>530.3315352860773</v>
+        <v>2876.594459243706</v>
       </c>
       <c r="E46" t="n">
-        <v>382.4184417036842</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>4142.189983800566</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>3887.505495594679</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>3598.088325557718</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806534</v>
+        <v>3598.088325557718</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.402603663004</v>
+        <v>3377.295746414188</v>
       </c>
     </row>
   </sheetData>
@@ -8058,13 +8060,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>21.18099370047514</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179985</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>30.36925650589518</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>54.95314511566525</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>342.9044714621886</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>186.5911984019046</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>20.93778120154991</v>
@@ -8526,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8550,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>138.9393975111053</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10598,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>-1.364242052659392e-12</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>45.44677382459309</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>86.46557462472416</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23656,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>103.8640922513187</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23899,13 +23901,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>68.29586847696692</v>
+        <v>74.66500970697015</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24133,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>66.30572490086945</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>110.0033420516639</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,19 +24366,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>9.131767663158371</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24412,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>145.3900508477918</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>115.4620467826932</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24844,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>67.48492792567583</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25078,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25135,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>218.5536561769547</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25309,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>116.6691671648106</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>180.5487903941879</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25795,13 +25797,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25834,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>112.2233770574207</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>84.77391660562003</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>207.8347205162515</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>643016.7552599552</v>
+        <v>649552.8755111331</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>632247.9983748902</v>
+        <v>632247.9983748903</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>632247.9983748903</v>
+        <v>632247.9983748902</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>643016.7552599552</v>
+        <v>632247.9983748902</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>643016.7552599552</v>
+        <v>632247.9983748902</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>643016.7552599552</v>
+        <v>632247.9983748902</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>643016.7552599552</v>
+        <v>632247.9983748902</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>643016.7552599552</v>
+        <v>632247.9983748902</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176759</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176765</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176758</v>
+        <v>800515.7256176766</v>
       </c>
       <c r="E2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="F2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.934697756</v>
       </c>
       <c r="G2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="H2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="I2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977561</v>
       </c>
       <c r="J2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="K2" t="n">
-        <v>800515.7256176772</v>
+        <v>786967.9346977555</v>
       </c>
       <c r="L2" t="n">
-        <v>800515.725617676</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="M2" t="n">
-        <v>800515.7256176764</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="N2" t="n">
-        <v>800515.7256176773</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="O2" t="n">
-        <v>800515.7256176773</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977561</v>
+        <v>786967.9346977556</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363178</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819077</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26423,43 @@
         <v>133113.8635467444</v>
       </c>
       <c r="D4" t="n">
-        <v>86694.40323307096</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719669</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719614</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719632</v>
       </c>
       <c r="K4" t="n">
-        <v>15498.22772481314</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="L4" t="n">
-        <v>15498.22772481314</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
-        <v>15498.2277248132</v>
+        <v>7507.368461719638</v>
       </c>
       <c r="N4" t="n">
-        <v>15498.22772481314</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
-        <v>15498.22772481314</v>
+        <v>7507.368461719729</v>
       </c>
       <c r="P4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26475,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26494,19 +26496,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-540287.6939448325</v>
+        <v>-540287.6939448323</v>
       </c>
       <c r="C6" t="n">
-        <v>574464.0896310875</v>
+        <v>574464.0896310873</v>
       </c>
       <c r="D6" t="n">
-        <v>413260.2413828736</v>
+        <v>574464.0896310876</v>
       </c>
       <c r="E6" t="n">
-        <v>352925.5746047739</v>
+        <v>170852.5947875832</v>
       </c>
       <c r="F6" t="n">
-        <v>678338.0364121289</v>
+        <v>678338.0364121292</v>
       </c>
       <c r="G6" t="n">
-        <v>678338.0364121293</v>
+        <v>678338.0364121287</v>
       </c>
       <c r="H6" t="n">
         <v>678338.0364121291</v>
       </c>
       <c r="I6" t="n">
+        <v>678338.0364121294</v>
+      </c>
+      <c r="J6" t="n">
+        <v>510732.8586021466</v>
+      </c>
+      <c r="K6" t="n">
+        <v>678338.0364121287</v>
+      </c>
+      <c r="L6" t="n">
+        <v>678338.0364121287</v>
+      </c>
+      <c r="M6" t="n">
+        <v>545730.7426832024</v>
+      </c>
+      <c r="N6" t="n">
+        <v>678338.0364121288</v>
+      </c>
+      <c r="O6" t="n">
         <v>678338.0364121291</v>
       </c>
-      <c r="J6" t="n">
-        <v>510732.8586021465</v>
-      </c>
-      <c r="K6" t="n">
-        <v>662425.6640453169</v>
-      </c>
-      <c r="L6" t="n">
-        <v>633559.4120307567</v>
-      </c>
-      <c r="M6" t="n">
-        <v>596798.3541034361</v>
-      </c>
-      <c r="N6" t="n">
-        <v>681853.3820389488</v>
-      </c>
-      <c r="O6" t="n">
-        <v>681853.3820389488</v>
-      </c>
       <c r="P6" t="n">
-        <v>678338.0364121293</v>
+        <v>678338.0364121288</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26741,7 +26743,7 @@
         <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26795,7 @@
         <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26802,7 +26804,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26829,7 +26831,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26963,16 +26965,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26987,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27015,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.816623302254</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27039,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27261,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>351.4847376220722</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,10 +27435,10 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>133.0006147593281</v>
       </c>
     </row>
     <row r="3">
@@ -27534,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>52.54142218018778</v>
       </c>
       <c r="F4" t="n">
-        <v>21.91420324343063</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
@@ -27591,7 +27593,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,16 +27621,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>85.39142843582476</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27676,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>41.36046777034744</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,16 +27776,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
@@ -27792,7 +27794,7 @@
         <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,25 +27824,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>143.668985170742</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>104.2083874387579</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>142.0138769831737</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>66.80716031421605</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>57.15559447613455</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>144.4935727450316</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28798,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-8.307884295041171e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-8.307884295041171e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-8.307884295041171e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-8.307884295041171e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-8.307884295041171e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-8.307884295041171e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-8.307884295041171e-14</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28849,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-8.307884295041171e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-8.307884295041171e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>-8.307884295041171e-14</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>-8.307884295041171e-14</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>-8.307884295041171e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>-8.307884295041171e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>-8.307884295041171e-14</v>
       </c>
     </row>
     <row r="21">
@@ -29272,22 +29274,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>-8.307884295041171e-14</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>-8.307884295041171e-14</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>-8.307884295041171e-14</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>-8.307884295041171e-14</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-8.307884295041171e-14</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29323,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>-8.307884295041171e-14</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29335,13 +29337,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>-8.307884295041171e-14</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>-8.307884295041171e-14</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>-8.307884295041171e-14</v>
       </c>
     </row>
     <row r="27">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30460,7 +30462,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,13 +31843,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>351.1157147121651</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>620.1193660647499</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31859,7 +31861,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>620.1193660647489</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>353.3934907042774</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32318,19 +32320,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>355.4083096598242</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>250.3097721075159</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,13 +32785,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>699.0496615458086</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32810,7 +32812,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,34 +33022,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>250.1723312270667</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,34 +33259,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>468.3778278510275</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>211.0222436375116</v>
       </c>
       <c r="L33" t="n">
-        <v>441.0292693655512</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>344.6306853939237</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>138.5955196772183</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>156.3072281639545</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34211,28 +34213,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>354.9153144485699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34384,7 +34386,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236522</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34442,19 +34444,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>441.0292693655512</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,13 +34465,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34778,13 +34780,13 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>318.8613543383253</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -34793,7 +34795,7 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>280.0487856294274</v>
       </c>
       <c r="Q3" t="n">
         <v>326.5580100667036</v>
@@ -35012,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>117.9333660065826</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>640.5848321000387</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820404</v>
@@ -35030,10 +35032,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>436.2707275254369</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>255.4201198419598</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35489,13 +35491,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>213.2742757378061</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>477.9853321427316</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35507,7 +35509,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>477.9853321427306</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>219.4190832899471</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,19 +35968,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>110.1905571410453</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>213.2742757378059</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>116.3353646931857</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36379,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>556.4534171013642</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36458,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36601,7 +36603,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>110.1905571410452</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36838,7 +36840,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>334.4034204366973</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37150,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>73.1808046631526</v>
       </c>
       <c r="L33" t="n">
-        <v>302.474889585677</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37387,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>206.7892464195648</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462684</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37624,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0.7540807028593151</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37859,28 +37861,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38032,7 +38034,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683826</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38090,19 +38092,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>302.474889585677</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,13 +38113,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3885659.665174315</v>
+        <v>3881522.507924163</v>
       </c>
     </row>
     <row r="7">
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>11.54770277295399</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>253.2373238967255</v>
+        <v>373.9679768531869</v>
       </c>
     </row>
     <row r="3">
@@ -822,22 +822,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>93.89254046638139</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>66.40055121331426</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,16 +904,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>123.2472796405362</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>307.8805009470656</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1062,19 +1062,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>50.9807481254279</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>182.3146108978331</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>275.8235713872553</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>260.9450981559189</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1293,10 +1293,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>91.4598785420778</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1305,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>120.33325546674</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784697</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>53.82913822149973</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>206.758226496619</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788180381</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788180381</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>177.4726336168578</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2092,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176204</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>107.4021082756243</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2490,7 +2490,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>156.3923706291105</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624796</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695538</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2617,10 +2617,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2727,10 +2727,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>50.0620915095756</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>184.6527153981522</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>67.9693421596363</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>63.16281301712667</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>45.16086499484926</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>161.355549430153</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3903,10 +3903,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>105.1820732698676</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4140,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>145.2857567969021</v>
       </c>
       <c r="U46" t="n">
-        <v>78.34975387299269</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1249.246750862032</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="C2" t="n">
-        <v>880.2842339216199</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="D2" t="n">
-        <v>522.0185353148695</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="E2" t="n">
-        <v>136.2302827166252</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F2" t="n">
         <v>129.2847819674218</v>
@@ -4327,16 +4327,16 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V2" t="n">
-        <v>2231.276441056585</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1878.507785786471</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="X2" t="n">
-        <v>1505.042027525391</v>
+        <v>918.0161179218646</v>
       </c>
       <c r="Y2" t="n">
-        <v>1249.246750862032</v>
+        <v>540.2706867570294</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049857</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>1937.460550937313</v>
+        <v>1675.63996629486</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2238.100841080694</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2561.393271046731</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.9138669598622</v>
+        <v>1006.01552520271</v>
       </c>
       <c r="C4" t="n">
-        <v>292.9776840319553</v>
+        <v>837.079342274803</v>
       </c>
       <c r="D4" t="n">
-        <v>292.9776840319553</v>
+        <v>686.9627028624673</v>
       </c>
       <c r="E4" t="n">
-        <v>198.1367340659135</v>
+        <v>539.0496092800742</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>392.1596617821638</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>224.1731970904424</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
@@ -4524,16 +4524,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1381.76163186861</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
-        <v>1092.344461831649</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X4" t="n">
-        <v>864.354910933632</v>
+        <v>1408.45656917648</v>
       </c>
       <c r="Y4" t="n">
-        <v>643.5623317901019</v>
+        <v>1187.66399003295</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1101.143993102105</v>
+        <v>1711.405707395431</v>
       </c>
       <c r="C5" t="n">
-        <v>732.1814761616938</v>
+        <v>1342.44319045502</v>
       </c>
       <c r="D5" t="n">
-        <v>373.9157775549433</v>
+        <v>984.1774918482693</v>
       </c>
       <c r="E5" t="n">
-        <v>373.9157775549433</v>
+        <v>598.389239250025</v>
       </c>
       <c r="F5" t="n">
-        <v>366.9702768057398</v>
+        <v>187.4033344604174</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>175.7389882251103</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W5" t="n">
-        <v>2251.348923403119</v>
+        <v>2084.871465656511</v>
       </c>
       <c r="X5" t="n">
-        <v>1877.883165142039</v>
+        <v>1711.405707395431</v>
       </c>
       <c r="Y5" t="n">
-        <v>1487.743833166227</v>
+        <v>1711.405707395431</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>168.0008189145199</v>
+        <v>114.5432626034352</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380227</v>
+        <v>299.2648838844851</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>593.9684409159568</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>957.2304598751767</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1344.515588472122</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P6" t="n">
         <v>2239.046898434118</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>623.0447030767627</v>
+        <v>716.5983551657491</v>
       </c>
       <c r="C7" t="n">
-        <v>454.1085201488559</v>
+        <v>547.6621722378422</v>
       </c>
       <c r="D7" t="n">
-        <v>303.9918807365201</v>
+        <v>397.5455328255065</v>
       </c>
       <c r="E7" t="n">
-        <v>303.9918807365201</v>
+        <v>249.6324392431134</v>
       </c>
       <c r="F7" t="n">
-        <v>157.1019332386098</v>
+        <v>102.742491745203</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4752,25 +4752,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1216.838891429094</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1216.838891429094</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1216.838891429094</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1032.68271880502</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="X7" t="n">
-        <v>804.6931679070025</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y7" t="n">
-        <v>804.6931679070025</v>
+        <v>898.2468199959889</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1313.273607737845</v>
+        <v>1454.537269016651</v>
       </c>
       <c r="C8" t="n">
-        <v>944.3110907974335</v>
+        <v>1085.57475207624</v>
       </c>
       <c r="D8" t="n">
-        <v>944.3110907974335</v>
+        <v>727.3090534694891</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974335</v>
+        <v>341.5208008712448</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078259</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4834,22 +4834,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2090.012779777779</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W8" t="n">
-        <v>2090.012779777779</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="X8" t="n">
-        <v>2090.012779777779</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="Y8" t="n">
-        <v>1699.873447801967</v>
+        <v>1841.137109080773</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>684.9695361605188</v>
+        <v>614.5430248380231</v>
       </c>
       <c r="L9" t="n">
-        <v>979.6730931919906</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M9" t="n">
-        <v>1342.935112151211</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N9" t="n">
-        <v>1730.220240748156</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>2062.290675924318</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P9" t="n">
-        <v>2309.473409756615</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4916,16 +4916,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>586.4082965573066</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C10" t="n">
-        <v>417.4721136293997</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D10" t="n">
-        <v>325.0883979303312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E10" t="n">
-        <v>325.0883979303312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>325.0883979303312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
         <v>76.71595955312198</v>
@@ -4977,10 +4977,10 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4989,25 +4989,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234358</v>
+        <v>1514.8973771788</v>
       </c>
       <c r="T10" t="n">
-        <v>1216.838891429094</v>
+        <v>1514.8973771788</v>
       </c>
       <c r="U10" t="n">
-        <v>1216.838891429094</v>
+        <v>1225.779039682638</v>
       </c>
       <c r="V10" t="n">
-        <v>1216.838891429094</v>
+        <v>971.0945514767509</v>
       </c>
       <c r="W10" t="n">
-        <v>1216.838891429094</v>
+        <v>681.6773814397902</v>
       </c>
       <c r="X10" t="n">
-        <v>988.8493405310765</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y10" t="n">
-        <v>768.0567613875463</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5035,55 +5035,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>454.6048385560546</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>949.9304447718133</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703109</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>695.5020655703109</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>545.3854261579752</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>397.4723325755821</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>397.4723325755821</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>230.276233290462</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5269,19 +5269,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,19 +5290,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M15" t="n">
-        <v>923.0670414349511</v>
+        <v>842.6091804069459</v>
       </c>
       <c r="N15" t="n">
-        <v>1550.665004989558</v>
+        <v>1470.207143961553</v>
       </c>
       <c r="O15" t="n">
-        <v>2102.574735228845</v>
+        <v>2022.11687420084</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5509,55 +5509,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718132</v>
+        <v>692.9625378792912</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>810.0653816078141</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>641.1291986799072</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>491.0125592675714</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5682,7 +5682,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5691,34 +5691,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1509.120567373032</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1219.703397336071</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>991.7138464380538</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>991.7138464380538</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,34 +5740,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5779,22 +5779,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L21" t="n">
-        <v>542.9134462654469</v>
+        <v>740.5562989961527</v>
       </c>
       <c r="M21" t="n">
-        <v>1140.291933891999</v>
+        <v>740.5562989961527</v>
       </c>
       <c r="N21" t="n">
-        <v>1767.889897446606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5919,7 +5919,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570818</v>
@@ -5928,34 +5928,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727408</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="23">
@@ -5989,10 +5989,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6071,25 +6071,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>696.7084350851671</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C25" t="n">
-        <v>696.7084350851671</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D25" t="n">
-        <v>546.5917956728314</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>398.6787020904383</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>251.7887545925279</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993915</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W25" t="n">
-        <v>1327.139029956954</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X25" t="n">
-        <v>1099.149479058937</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y25" t="n">
-        <v>878.3568999154069</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,7 +6214,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,7 +6223,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6232,16 +6232,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6256,19 +6256,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6317,16 +6317,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>580.8993044876688</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>432.9862109052757</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>286.0962634073653</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6454,28 +6454,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2445.740023695907</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>868.6673633290469</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>699.73118040114</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>2264.108249235165</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1975.033022579363</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1788.515128237795</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1499.097958200834</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1271.108407302817</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>1050.315828159287</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6694,34 +6694,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K33" t="n">
-        <v>315.9123021921476</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L33" t="n">
-        <v>315.9123021921476</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M33" t="n">
-        <v>913.2907898186995</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373306</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612593</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>801.6605733532801</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1432.091168225067</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1204.10161732705</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>983.3090381835199</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,25 +6919,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075809</v>
@@ -6949,10 +6949,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>448.1846595309957</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L36" t="n">
-        <v>943.5102657467545</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M36" t="n">
-        <v>1540.888753373306</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373306</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>631.7012443408905</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7165,37 +7165,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K39" t="n">
-        <v>244.2098454714573</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L39" t="n">
-        <v>739.5354516872161</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.913939313768</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7374,10 +7374,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1098.667160263526</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1098.667160263526</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
         <v>1948.813509611463</v>
@@ -7402,22 +7402,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7429,34 +7429,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O42" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>810.0653816078141</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>641.1291986799072</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>491.0125592675714</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2273.672861378251</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1984.597634722449</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1729.913146516562</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1440.495976479601</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1212.506425581584</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>991.7138464380538</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7654,16 +7654,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7733,22 +7733,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3195.647281583948</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C46" t="n">
-        <v>3026.711098656041</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>2876.594459243706</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U46" t="n">
-        <v>4142.189983800566</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V46" t="n">
-        <v>3887.505495594679</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W46" t="n">
-        <v>3598.088325557718</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X46" t="n">
-        <v>3598.088325557718</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y46" t="n">
-        <v>3377.295746414188</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>30.36925650589518</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>21.89339468985682</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>54.95314511566525</v>
+        <v>0.9556134883069234</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878355</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>138.9393975111053</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>-1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>86.46557462472416</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>45.37941682720898</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.22910392194126</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23895,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.22910392194126</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>74.66500970697015</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>138.4949402405068</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>9.131767663158371</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>125.5054897610403</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>115.4620467826932</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>67.48492792567583</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>218.5536561769547</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>116.6691671648106</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>180.5487903941879</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>57.22910392194177</v>
       </c>
     </row>
     <row r="41">
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>112.2233770574207</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="U46" t="n">
-        <v>207.8347205162515</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26319,43 +26319,43 @@
         <v>800515.7256176763</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176766</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="E2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="F2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977555</v>
       </c>
       <c r="G2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="H2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="I2" t="n">
-        <v>786967.9346977561</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="J2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="K2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="L2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="M2" t="n">
         <v>786967.9346977558</v>
       </c>
-      <c r="K2" t="n">
-        <v>786967.9346977555</v>
-      </c>
-      <c r="L2" t="n">
-        <v>786967.9346977556</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="O2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="P2" t="n">
         <v>786967.9346977557</v>
-      </c>
-      <c r="N2" t="n">
-        <v>786967.9346977556</v>
-      </c>
-      <c r="O2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="P2" t="n">
-        <v>786967.9346977556</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.4416245462</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="C4" t="n">
         <v>133113.8635467444</v>
@@ -26426,37 +26426,37 @@
         <v>133113.8635467444</v>
       </c>
       <c r="E4" t="n">
+        <v>7507.368461719636</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7507.368461719625</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7507.368461719634</v>
+      </c>
+      <c r="H4" t="n">
         <v>7507.368461719667</v>
-      </c>
-      <c r="F4" t="n">
-        <v>7507.368461719667</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7507.368461719667</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7507.368461719614</v>
       </c>
       <c r="I4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719632</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719668</v>
       </c>
       <c r="L4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719638</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="N4" t="n">
+        <v>7507.368461719668</v>
+      </c>
+      <c r="O4" t="n">
         <v>7507.368461719667</v>
-      </c>
-      <c r="O4" t="n">
-        <v>7507.368461719729</v>
       </c>
       <c r="P4" t="n">
         <v>7507.368461719667</v>
@@ -26524,46 +26524,46 @@
         <v>-540287.6939448323</v>
       </c>
       <c r="C6" t="n">
-        <v>574464.0896310873</v>
+        <v>574464.0896310871</v>
       </c>
       <c r="D6" t="n">
-        <v>574464.0896310876</v>
+        <v>574464.0896310871</v>
       </c>
       <c r="E6" t="n">
-        <v>170852.5947875832</v>
+        <v>170505.2155332258</v>
       </c>
       <c r="F6" t="n">
-        <v>678338.0364121292</v>
+        <v>677990.6571577715</v>
       </c>
       <c r="G6" t="n">
-        <v>678338.0364121287</v>
+        <v>677990.657157772</v>
       </c>
       <c r="H6" t="n">
-        <v>678338.0364121291</v>
+        <v>677990.657157772</v>
       </c>
       <c r="I6" t="n">
-        <v>678338.0364121294</v>
+        <v>677990.6571577725</v>
       </c>
       <c r="J6" t="n">
-        <v>510732.8586021466</v>
+        <v>510385.4793477894</v>
       </c>
       <c r="K6" t="n">
-        <v>678338.0364121287</v>
+        <v>677990.6571577719</v>
       </c>
       <c r="L6" t="n">
-        <v>678338.0364121287</v>
+        <v>677990.6571577723</v>
       </c>
       <c r="M6" t="n">
-        <v>545730.7426832024</v>
+        <v>545383.3634288454</v>
       </c>
       <c r="N6" t="n">
-        <v>678338.0364121288</v>
+        <v>677990.6571577721</v>
       </c>
       <c r="O6" t="n">
-        <v>678338.0364121291</v>
+        <v>677990.6571577722</v>
       </c>
       <c r="P6" t="n">
-        <v>678338.0364121288</v>
+        <v>677990.657157772</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000387</v>
+      </c>
+      <c r="C4" t="n">
         <v>640.5848321000389</v>
       </c>
-      <c r="C4" t="n">
-        <v>640.5848321000387</v>
-      </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="G4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26968,34 +26968,34 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>433.9106082241349</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,16 +27381,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>133.0006147593281</v>
+        <v>12.2699618028667</v>
       </c>
     </row>
     <row r="3">
@@ -27542,22 +27542,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>52.54142218018778</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>80.85095794181461</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27596,10 +27596,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,16 +27624,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>177.7712729218692</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27678,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>41.36046777034744</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27782,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>115.3258519193763</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,10 +27824,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>104.2083874387579</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>131.0524743544561</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>66.80716031421605</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28013,10 +28013,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>57.15559447613455</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28025,13 +28025,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,19 +28061,19 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>74.32920489499753</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28155,7 +28155,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-6.751381063403296e-13</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-9.379164112033322e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-8.307884295041171e-14</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>-8.307884295041171e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-8.307884295041171e-14</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-8.307884295041171e-14</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-8.307884295041171e-14</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-8.307884295041171e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-8.307884295041171e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-8.307884295041171e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-8.307884295041171e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-8.307884295041171e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>-8.307884295041171e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>-8.307884295041171e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>-8.307884295041171e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>-8.307884295041171e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29274,22 +29274,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-8.307884295041171e-14</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>-8.307884295041171e-14</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-8.307884295041171e-14</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>-8.307884295041171e-14</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>-8.307884295041171e-14</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>-8.307884295041171e-14</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29337,13 +29337,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>-8.307884295041171e-14</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>-8.307884295041171e-14</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>-8.307884295041171e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -30462,7 +30462,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -31518,43 +31518,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,7 +31609,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31618,25 +31618,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31709,13 +31709,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>351.1157147121651</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>639.8517673857158</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>353.3934907042774</v>
+        <v>397.6543049213396</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,40 +32226,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32268,7 +32268,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,37 +32311,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>355.4083096598242</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>752.215000082457</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32408,7 +32408,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,40 +32463,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32505,7 +32505,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32557,28 +32557,28 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>441.0292693655512</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>704.140493903809</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q21" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32645,7 +32645,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32791,7 +32791,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>699.0496615458086</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,7 +32812,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33037,19 +33037,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>332.1692388321076</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33271,31 +33271,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>248.3870916262918</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>211.0222436375116</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>321.1112257697157</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>344.6306853939237</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>232.1537035940586</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33970,16 +33970,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>138.5955196772183</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862122</v>
@@ -33991,10 +33991,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>362.5355639238077</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34207,10 +34207,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34225,16 +34225,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P42" t="n">
-        <v>354.9153144485699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34453,25 +34453,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34780,7 +34780,7 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378501</v>
@@ -34795,13 +34795,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>280.0487856294274</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q3" t="n">
         <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0.9556134883069083</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>117.9333660065826</v>
+        <v>63.93583437922432</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
@@ -35032,7 +35032,7 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q6" t="n">
         <v>326.5580100667036</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313203</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35269,10 +35269,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>255.4201198419598</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35342,7 +35342,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35351,7 +35351,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>213.2742757378061</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>508.5100553023825</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>219.4190832899471</v>
+        <v>263.6798975070093</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>213.2742757378059</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>620.8732879991237</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36053,7 +36053,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>302.474889585677</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>572.7987818204757</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36290,7 +36290,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36439,7 +36439,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>556.4534171013642</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36685,19 +36685,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>189.5729943876631</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36919,22 +36919,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>108.4053175402703</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>73.1808046631526</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>187.1368183553855</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>206.7892464195648</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>90.01966967204032</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0.7540807028593151</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37639,10 +37639,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>222.5537898377862</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789214</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37873,16 +37873,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P42" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38101,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3881522.507924163</v>
+        <v>3883283.038226949</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -667,13 +667,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>254.6305596823416</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>373.9679768531869</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -834,10 +834,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>66.40055121331426</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>23.94563726208598</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -904,16 +904,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>215.7067999233475</v>
       </c>
       <c r="H5" t="n">
-        <v>123.2472796405362</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>50.9807481254279</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>171.1971464172153</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>275.8235713872553</v>
+        <v>275.8235713872558</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705011</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>120.33325546674</v>
+        <v>120.3332554667406</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784697</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>206.758226496619</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.146142788180381</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788180381</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>27.02919805176204</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2490,7 +2490,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>91.89996056624796</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D28" t="n">
-        <v>123.9815576456779</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>161.355549430153</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>31.26260713376563</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>145.2857567969021</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>540.2706867570294</v>
+        <v>1171.597178657685</v>
       </c>
       <c r="C2" t="n">
-        <v>540.2706867570294</v>
+        <v>1171.597178657685</v>
       </c>
       <c r="D2" t="n">
-        <v>540.2706867570294</v>
+        <v>1171.597178657685</v>
       </c>
       <c r="E2" t="n">
-        <v>540.2706867570294</v>
+        <v>785.8089260594411</v>
       </c>
       <c r="F2" t="n">
-        <v>129.2847819674218</v>
+        <v>374.8230212698335</v>
       </c>
       <c r="G2" t="n">
         <v>117.6204357321147</v>
@@ -4327,7 +4327,7 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
         <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.313418796629</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182944</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="X2" t="n">
-        <v>918.0161179218646</v>
+        <v>1171.597178657685</v>
       </c>
       <c r="Y2" t="n">
-        <v>540.2706867570294</v>
+        <v>1171.597178657685</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O3" t="n">
-        <v>1675.63996629486</v>
+        <v>2102.578639884741</v>
       </c>
       <c r="P3" t="n">
-        <v>2238.100841080694</v>
+        <v>2349.761373717038</v>
       </c>
       <c r="Q3" t="n">
-        <v>2561.393271046731</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4482,13 +4482,13 @@
         <v>224.1731970904424</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>75.43429895394854</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1711.405707395431</v>
+        <v>1711.405707395432</v>
       </c>
       <c r="C5" t="n">
-        <v>1342.44319045502</v>
+        <v>1342.443190455021</v>
       </c>
       <c r="D5" t="n">
-        <v>984.1774918482693</v>
+        <v>984.1774918482702</v>
       </c>
       <c r="E5" t="n">
-        <v>598.389239250025</v>
+        <v>984.1774918482702</v>
       </c>
       <c r="F5" t="n">
-        <v>187.4033344604174</v>
+        <v>573.1915870586627</v>
       </c>
       <c r="G5" t="n">
-        <v>175.7389882251103</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4588,10 +4588,10 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
         <v>2437.640120926626</v>
@@ -4606,13 +4606,13 @@
         <v>2437.640120926626</v>
       </c>
       <c r="W5" t="n">
-        <v>2084.871465656511</v>
+        <v>2084.871465656512</v>
       </c>
       <c r="X5" t="n">
-        <v>1711.405707395431</v>
+        <v>1711.405707395432</v>
       </c>
       <c r="Y5" t="n">
-        <v>1711.405707395431</v>
+        <v>1711.405707395432</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>114.5432626034352</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>299.2648838844851</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L6" t="n">
-        <v>593.9684409159568</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M6" t="n">
-        <v>957.2304598751767</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1344.515588472122</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
-        <v>1676.586023648284</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
         <v>2239.046898434118</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>716.5983551657491</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>547.6621722378422</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>397.5455328255065</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>249.6324392431134</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>102.742491745203</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4764,13 +4764,13 @@
         <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1347.028950037536</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X7" t="n">
-        <v>1119.039399139519</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y7" t="n">
-        <v>898.2468199959889</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="8">
@@ -4780,64 +4780,64 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1454.537269016651</v>
+        <v>1454.537269016652</v>
       </c>
       <c r="C8" t="n">
         <v>1085.57475207624</v>
       </c>
       <c r="D8" t="n">
-        <v>727.3090534694891</v>
+        <v>727.3090534694895</v>
       </c>
       <c r="E8" t="n">
-        <v>341.5208008712448</v>
+        <v>341.5208008712453</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>62.91113280331018</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V8" t="n">
         <v>2231.276441056585</v>
@@ -4859,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380231</v>
+        <v>423.1489515180663</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694948</v>
+        <v>717.8525085495381</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828715</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1715.293511287797</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601822</v>
+        <v>2047.363946463959</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434119</v>
+        <v>2294.546680296256</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4916,16 +4916,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,55 +4938,55 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="C10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="D10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
         <v>1514.8973771788</v>
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5038,19 +5038,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5059,28 +5059,28 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021785</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2227.361618603202</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5272,55 +5272,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M15" t="n">
-        <v>842.6091804069459</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N15" t="n">
-        <v>1470.207143961553</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O15" t="n">
-        <v>2022.11687420084</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5512,7 +5512,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111718</v>
@@ -5521,22 +5521,22 @@
         <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L18" t="n">
-        <v>95.58405025273906</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M18" t="n">
-        <v>692.9625378792912</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5682,7 +5682,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5691,34 +5691,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,25 +5749,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961527</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M21" t="n">
-        <v>740.5562989961527</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1368.154262550759</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5980,10 +5980,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
@@ -5995,13 +5995,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6077,10 +6077,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.672526468518</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6174,25 +6174,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2171.280006238955</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U25" t="n">
-        <v>1882.204779583153</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V25" t="n">
-        <v>1627.520291377266</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W25" t="n">
-        <v>1338.103121340305</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X25" t="n">
-        <v>1110.113570442288</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y25" t="n">
-        <v>889.3209912987577</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="26">
@@ -6223,25 +6223,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6363,22 +6363,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400712</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6460,22 +6460,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6539,16 +6539,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M30" t="n">
         <v>842.6091804069456</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6694,7 +6694,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192599</v>
@@ -6706,16 +6706,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6782,19 +6782,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273903</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L33" t="n">
-        <v>590.9096564684977</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>1188.28814409505</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1815.886107649656</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2367.795837888943</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6900,10 +6900,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6934,22 +6934,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7134,13 +7134,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7156,46 +7156,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L39" t="n">
-        <v>95.58405025273905</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M39" t="n">
-        <v>692.9625378792909</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N39" t="n">
-        <v>1320.560501433898</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O39" t="n">
-        <v>1872.470231673185</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2296.093381168253</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="41">
@@ -7420,13 +7420,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7490,19 +7490,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2149.810879820877</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8072,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039159</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>73.66059580999817</v>
       </c>
       <c r="R3" t="n">
-        <v>21.89339468985682</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9556134883069234</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878355</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8543,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>129.4330134067473</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>-1.534772309241816e-12</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>45.37941682720898</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.22910392194126</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.22910392194126</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>138.4949402405068</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24414,10 +24414,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>125.5054897610403</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D28" t="n">
-        <v>24.63391537253442</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>632247.9983748903</v>
+        <v>632247.9983748902</v>
       </c>
     </row>
     <row r="6">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>632247.9983748902</v>
+        <v>632247.9983748903</v>
       </c>
     </row>
     <row r="16">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176763</v>
+        <v>800515.7256176765</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176763</v>
+        <v>800515.7256176765</v>
       </c>
       <c r="E2" t="n">
+        <v>786967.9346977561</v>
+      </c>
+      <c r="F2" t="n">
         <v>786967.9346977557</v>
-      </c>
-      <c r="F2" t="n">
-        <v>786967.9346977555</v>
       </c>
       <c r="G2" t="n">
         <v>786967.9346977557</v>
@@ -26334,7 +26334,7 @@
         <v>786967.9346977557</v>
       </c>
       <c r="I2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.934697756</v>
       </c>
       <c r="J2" t="n">
         <v>786967.9346977557</v>
@@ -26343,13 +26343,13 @@
         <v>786967.9346977557</v>
       </c>
       <c r="L2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="M2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="N2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977562</v>
       </c>
       <c r="O2" t="n">
         <v>786967.9346977558</v>
@@ -26368,19 +26368,19 @@
         <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245462</v>
+        <v>507485.4416245455</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26392,7 +26392,7 @@
         <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26401,7 +26401,7 @@
         <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26420,19 +26420,19 @@
         <v>133113.8635467444</v>
       </c>
       <c r="C4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719636</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719625</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719634</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
         <v>7507.368461719667</v>
@@ -26444,7 +26444,7 @@
         <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="L4" t="n">
         <v>7507.368461719667</v>
@@ -26472,10 +26472,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-540287.6939448323</v>
+        <v>-540287.6939448321</v>
       </c>
       <c r="C6" t="n">
-        <v>574464.0896310871</v>
+        <v>574464.0896310874</v>
       </c>
       <c r="D6" t="n">
         <v>574464.0896310871</v>
       </c>
       <c r="E6" t="n">
-        <v>170505.2155332258</v>
+        <v>170817.8568621481</v>
       </c>
       <c r="F6" t="n">
-        <v>677990.6571577715</v>
+        <v>678303.2984866933</v>
       </c>
       <c r="G6" t="n">
-        <v>677990.657157772</v>
+        <v>678303.2984866931</v>
       </c>
       <c r="H6" t="n">
-        <v>677990.657157772</v>
+        <v>678303.2984866934</v>
       </c>
       <c r="I6" t="n">
-        <v>677990.6571577725</v>
+        <v>678303.2984866935</v>
       </c>
       <c r="J6" t="n">
-        <v>510385.4793477894</v>
+        <v>510698.1206767106</v>
       </c>
       <c r="K6" t="n">
-        <v>677990.6571577719</v>
+        <v>678303.2984866933</v>
       </c>
       <c r="L6" t="n">
-        <v>677990.6571577723</v>
+        <v>678303.2984866934</v>
       </c>
       <c r="M6" t="n">
-        <v>545383.3634288454</v>
+        <v>545696.0047577666</v>
       </c>
       <c r="N6" t="n">
-        <v>677990.6571577721</v>
+        <v>678303.2984866938</v>
       </c>
       <c r="O6" t="n">
-        <v>677990.6571577722</v>
+        <v>678303.2984866934</v>
       </c>
       <c r="P6" t="n">
-        <v>677990.657157772</v>
+        <v>678303.2984866933</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175396</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26962,20 +26962,20 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>433.9106082241342</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,13 +27387,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>156.9171430906123</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>12.2699618028667</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>80.85095794181461</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>80.8509579418146</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>195.8409028496065</v>
       </c>
       <c r="H5" t="n">
-        <v>177.7712729218692</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>115.3258519193763</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>115.3258519193757</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>131.0524743544561</v>
+        <v>131.0524743544557</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>123.4522153987943</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -28028,7 +28028,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28061,7 +28061,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>74.32920489499753</v>
+        <v>74.32920489499683</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
@@ -28155,7 +28155,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-6.751381063403296e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-9.379164112033322e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181061</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.4562495533618</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.7038799491901</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857145</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767382</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342227</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166597</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147053</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235313</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.567854187451</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436497</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>189.8178475575842</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.428935217844</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.065366204059</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762074</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997904</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000176</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31676,46 +31676,46 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231073</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>119.0856174753788</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227909</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169138</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>141.0437987097485</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.3541376752348</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069564</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024989</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,13 +31831,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31849,31 +31849,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>639.8517673857158</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>572.868299221487</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>397.6543049213396</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>338.9915131655318</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,40 +32226,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32268,7 +32268,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32320,28 +32320,28 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>361.1081696176607</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>752.215000082457</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32408,7 +32408,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32557,34 +32557,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>704.140493903809</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>638.9422653403558</v>
       </c>
       <c r="P21" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32797,13 +32797,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33271,16 +33271,16 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>248.3870916262918</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33502,7 +33502,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>324.9782573297445</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33517,7 +33517,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>321.1112257697157</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33979,34 +33979,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>361.1081696176612</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>362.5355639238077</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34210,7 +34210,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>549.9198891312103</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
@@ -34792,16 +34792,16 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>190.1413181408527</v>
       </c>
       <c r="R3" t="n">
-        <v>0.9556134883069083</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>63.93583437922432</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225038</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.806230106751</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376318</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949729</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402558</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939913</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313203</v>
+        <v>186.587496243485</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378504</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820407</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>640.584832100039</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961232</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235324</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>245.9137357376019</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977098</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870598</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818073</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805409</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35500,16 +35500,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>508.5100553023825</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>430.2720547770426</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>263.6798975070093</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>199.0097390795103</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35968,25 +35968,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>222.5537898377865</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>620.8732879991237</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36053,7 +36053,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>572.7987818204757</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>496.3460208959114</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36445,13 +36445,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36922,13 +36922,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>108.4053175402703</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>187.1368183553855</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37165,7 +37165,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>187.1368183553855</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37627,25 +37627,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>222.5537898377871</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>222.5537898377862</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37858,7 +37858,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>407.3236446867659</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
